--- a/archivos/datos_fijos.xlsx
+++ b/archivos/datos_fijos.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazar\Desktop\CHECK IN\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazar\Desktop\PFJASFINAL\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38385818-C7C4-4825-98B3-45DBB1064962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45E7DE2-0B85-42F5-B1B2-2D49F41360E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Compañía</t>
   </si>
@@ -44,13 +55,55 @@
   </si>
   <si>
     <t>https://chat.whatsapp.com/JBZS3x3H8vS3Nd6DWN8wpV</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/I7wkohU4pUBBOpRrztUUhQ</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/DKqKZtSERZN6xfrSllijnn</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/Hrv72g03y2h7kswNaBwSq1</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/EJwno2Bqe7Z8IuO2iOAnlU</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/Dg1RZJbTGHmA5Cd32FmeCy</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/Cd8G2YYljQ30uzQJE9p1xY</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/J4wX7S7jUi9CP3ixSH3Eum</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/Ga9r6xEimytGxrVbM87o8I</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/KNBr7F9vJIA2RYI7FV7Lng</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/LqeIuNMM8SfB4vimoSLZIN</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/JYI4PnVEQqJ3Pcd88WKkIk</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/L91ag6HGrtEHGlhNquvBqf</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/GbodJ6MMcbvK7zyUK3giHU</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/FG7WFScm4ne3lIe88FHk0O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +128,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,9 +205,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -196,9 +257,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3 2" xfId="2" xr:uid="{9E5D908B-E9C2-4B4E-8EC7-47BD69004859}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,7 +566,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4">
@@ -550,7 +612,9 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="9">
         <v>2</v>
@@ -563,7 +627,9 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="13">
         <v>3</v>
@@ -576,7 +642,9 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
@@ -585,7 +653,9 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="15"/>
       <c r="E6" s="12"/>
@@ -594,7 +664,9 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
@@ -603,7 +675,9 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
@@ -612,7 +686,9 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="15"/>
       <c r="E9" s="12"/>
@@ -621,7 +697,9 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
@@ -630,7 +708,9 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
@@ -639,7 +719,9 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
@@ -648,7 +730,9 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
@@ -657,7 +741,9 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
@@ -666,16 +752,20 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
@@ -817,7 +907,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{764C1869-E3F9-4023-A7FA-19BAE39FC065}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{BE11C286-DEFE-4AA6-B4CC-E1E4F57D780B}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{32322684-2A78-4CBF-876D-B3FC07A93182}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{1611F30F-F617-458D-B0BA-77587C3DA83C}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{A0B0A2CD-6FFE-4E54-8038-526FAEC61C65}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{1F105A94-6476-4DA9-9970-AEB831EBFD1B}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{4F8EB501-2F72-4A32-B81E-DCC2BA5F0B82}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{87C99CD8-F908-4A81-B5B6-56F3BA3CE38F}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{21DD4C73-C4AD-4D0B-AF81-2F133AA67CF0}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{9937C658-320C-4E40-B9CE-B4111F897C49}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{AAF17154-8BC8-47FA-91C4-4A4B77F486B7}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{FE82598A-C2F3-4600-869A-E2D13C9DB59C}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{515CC325-6881-4F62-A43B-6CDB2C172171}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{FFA338D6-AD62-4CB9-94A6-BCA8CF86D391}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{5323F8C3-2A6B-4AE3-8A4A-33E44E1C8DD5}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{2BFA2B3E-F11E-439A-9C3E-F53930417B96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/archivos/datos_fijos.xlsx
+++ b/archivos/datos_fijos.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazar\Desktop\PFJASFINAL\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45E7DE2-0B85-42F5-B1B2-2D49F41360E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DC94BD-8B13-452F-A1FB-6AD7394A6667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$H$1:$I$786</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="55">
   <si>
     <t>Compañía</t>
   </si>
@@ -51,9 +54,6 @@
     <t>Azul</t>
   </si>
   <si>
-    <t>Verde</t>
-  </si>
-  <si>
     <t>https://chat.whatsapp.com/JBZS3x3H8vS3Nd6DWN8wpV</t>
   </si>
   <si>
@@ -97,13 +97,115 @@
   </si>
   <si>
     <t>https://chat.whatsapp.com/FG7WFScm4ne3lIe88FHk0O</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/JPmfrxEbHZ5FFSMbhxDwIs</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/H7sLNYPXgigGcWbTOPQqjU</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/E3K3DaiiCoaBlzaZoeWiiM</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/IofJbvQSLtdCn8GLQSa2Rt</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/JDovcRo1us73NvHSmRZTeL</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/CYuEpNLd7jp7tj8RmThzXz</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/L2pojE08sRYBRfQlolpn8q</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/Knb6IOxA58FCCX7ygcaBlr</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/DS5VrJTUokx509eqGZnnZE</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/G22p1HyMvgxKe28IVgrFe7</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/Cn1WGnObWEBFOr8TMyhPOm</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/LeZ63TYirdj1IMTbIlas55</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/GHknOpbhCa2A6m1XXCQoWV</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/K73R3h07LF76mSh0oIemeI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Piso 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Piso 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piso 2 </t>
+  </si>
+  <si>
+    <t>Piso 2</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Piso 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planta Baja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsuelo </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>104b</t>
+  </si>
+  <si>
+    <t>106b</t>
+  </si>
+  <si>
+    <t>Planta Baja</t>
+  </si>
+  <si>
+    <t>SubSueloDto.</t>
+  </si>
+  <si>
+    <t>PB Dto.</t>
+  </si>
+  <si>
+    <t>Sub.común</t>
+  </si>
+  <si>
+    <t>PB.Dto.</t>
+  </si>
+  <si>
+    <t>Habitacion</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/JDDtyP4Ufm0Cp1iFUcAeEZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +241,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +263,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -205,19 +342,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,11 +388,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3 2" xfId="2" xr:uid="{9E5D908B-E9C2-4B4E-8EC7-47BD69004859}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{9B6E968E-B2A2-4510-A6F6-293F3C80F563}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -563,365 +723,2041 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="H1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="18">
+        <v>4</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4">
+      <c r="D3" s="1"/>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="18">
+        <v>5</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="18">
+        <v>6</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="H5" s="18">
+        <v>7</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="10"/>
+      <c r="H6" s="18">
+        <v>8</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="H7" s="18">
+        <v>11</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="H8" s="18">
+        <v>12</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="10"/>
+      <c r="H9" s="18">
+        <v>13</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="H10" s="18">
+        <v>14</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="H11" s="18">
+        <v>15</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="10"/>
+      <c r="H12" s="18">
+        <v>16</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="H13" s="18">
+        <v>18</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="H14" s="18">
+        <v>46</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="10"/>
+      <c r="H15" s="18">
+        <v>47</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="H16" s="18">
+        <v>48</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>1</v>
+      </c>
+      <c r="B17" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="9">
+      <c r="C17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="H17" s="18">
+        <v>49</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="B18" s="16">
+        <v>2</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="H18" s="18">
+        <v>50</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>3</v>
+      </c>
+      <c r="B19" s="16">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="H19" s="18">
+        <v>51</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>4</v>
+      </c>
+      <c r="B20" s="16">
+        <v>2</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="18">
+        <v>53</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="B21" s="16">
+        <v>2</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="H21" s="18">
+        <v>54</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>6</v>
+      </c>
+      <c r="B22" s="16">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="18">
+        <v>55</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>7</v>
+      </c>
+      <c r="B23" s="16">
+        <v>2</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="H23" s="18">
+        <v>57</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>1</v>
+      </c>
+      <c r="B24" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="13">
+      <c r="C24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="H24" s="18">
+        <v>60</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>2</v>
+      </c>
+      <c r="B25" s="17">
         <v>3</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="C25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="H25" s="18">
+        <v>61</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>3</v>
+      </c>
+      <c r="B26" s="17">
+        <v>3</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="H26" s="18">
+        <v>62</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>4</v>
+      </c>
+      <c r="B27" s="17">
+        <v>3</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="H27" s="18">
+        <v>63</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>5</v>
+      </c>
+      <c r="B28" s="17">
+        <v>3</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="H28" s="18">
+        <v>70</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="B29" s="17">
+        <v>3</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="H29" s="18">
+        <v>71</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
+      <c r="B30" s="17">
+        <v>3</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="H30" s="18">
+        <v>72</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>60</v>
+      </c>
+      <c r="B31" s="22">
+        <v>1</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="H31" s="18">
+        <v>73</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="18">
+        <v>74</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="18">
+        <v>75</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="23"/>
+      <c r="H34" s="18">
+        <v>76</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="18">
+        <v>77</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="18">
+        <v>78</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="18">
+        <v>79</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="18">
+        <v>80</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H39" s="18">
+        <v>81</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H40" s="18">
+        <v>82</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H41" s="18">
+        <v>83</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H42" s="18">
+        <v>85</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H43" s="18">
+        <v>86</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H44" s="18">
+        <v>87</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H45" s="18">
+        <v>88</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H46" s="18">
+        <v>89</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H47" s="18">
+        <v>90</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H48" s="18">
+        <v>91</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H49" s="18">
+        <v>93</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="18">
+        <v>94</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H51" s="18">
+        <v>95</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H52" s="18">
+        <v>96</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H53" s="18">
+        <v>97</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H54" s="18">
+        <v>98</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H55" s="18">
+        <v>99</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H56" s="18">
+        <v>100</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H57" s="18">
+        <v>105</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H58" s="18">
+        <v>106</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H59" s="18">
+        <v>113</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H60" s="18">
+        <v>114</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H61" s="18">
+        <v>115</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H62" s="18">
+        <v>116</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H63" s="18">
+        <v>117</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H64" s="18">
+        <v>119</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H65" s="18">
+        <v>120</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H66" s="18">
+        <v>121</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H67" s="18">
+        <v>122</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H68" s="18">
+        <v>124</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H69" s="18">
+        <v>125</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H70" s="18">
+        <v>126</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H71" s="18">
+        <v>127</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H72" s="18">
+        <v>128</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H73" s="18">
+        <v>129</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H74" s="18">
+        <v>130</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H75" s="18">
+        <v>131</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H76" s="18">
+        <v>132</v>
+      </c>
+      <c r="I76" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H77" s="18">
+        <v>133</v>
+      </c>
+      <c r="I77" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H78" s="18">
+        <v>135</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H79" s="18">
+        <v>136</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H80" s="18">
+        <v>137</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H81" s="18">
+        <v>138</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H82" s="18">
+        <v>139</v>
+      </c>
+      <c r="I82" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H83" s="18">
+        <v>140</v>
+      </c>
+      <c r="I83" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H84" s="18">
+        <v>141</v>
+      </c>
+      <c r="I84" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H85" s="18">
+        <v>143</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H86" s="18">
+        <v>144</v>
+      </c>
+      <c r="I86" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H87" s="18">
+        <v>145</v>
+      </c>
+      <c r="I87" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H88" s="18">
+        <v>146</v>
+      </c>
+      <c r="I88" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H89" s="18">
+        <v>147</v>
+      </c>
+      <c r="I89" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H90" s="18">
+        <v>148</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H91" s="18">
+        <v>149</v>
+      </c>
+      <c r="I91" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H92" s="18">
+        <v>151</v>
+      </c>
+      <c r="I92" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H93" s="18">
+        <v>152</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H94" s="18">
+        <v>153</v>
+      </c>
+      <c r="I94" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H95" s="18">
+        <v>154</v>
+      </c>
+      <c r="I95" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H96" s="18">
+        <v>155</v>
+      </c>
+      <c r="I96" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H97" s="18">
+        <v>156</v>
+      </c>
+      <c r="I97" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H98" s="18">
+        <v>157</v>
+      </c>
+      <c r="I98" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H99" s="18">
+        <v>161</v>
+      </c>
+      <c r="I99" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H100" s="18">
+        <v>162</v>
+      </c>
+      <c r="I100" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H101" s="18">
+        <v>163</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H102" s="18">
+        <v>164</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H103" s="18">
+        <v>165</v>
+      </c>
+      <c r="I103" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H104" s="18">
+        <v>166</v>
+      </c>
+      <c r="I104" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H105" s="18">
+        <v>167</v>
+      </c>
+      <c r="I105" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H106" s="18">
+        <v>168</v>
+      </c>
+      <c r="I106" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H107" s="18">
+        <v>169</v>
+      </c>
+      <c r="I107" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H108" s="18">
+        <v>170</v>
+      </c>
+      <c r="I108" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H109" s="18">
+        <v>171</v>
+      </c>
+      <c r="I109" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H110" s="18">
+        <v>172</v>
+      </c>
+      <c r="I110" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H111" s="18">
+        <v>173</v>
+      </c>
+      <c r="I111" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H112" s="18">
+        <v>174</v>
+      </c>
+      <c r="I112" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H113" s="18">
+        <v>176</v>
+      </c>
+      <c r="I113" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H114" s="18">
+        <v>177</v>
+      </c>
+      <c r="I114" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H115" s="18">
+        <v>178</v>
+      </c>
+      <c r="I115" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H116" s="18">
+        <v>179</v>
+      </c>
+      <c r="I116" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H117" s="18">
+        <v>180</v>
+      </c>
+      <c r="I117" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H118" s="18">
+        <v>181</v>
+      </c>
+      <c r="I118" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H119" s="18">
+        <v>182</v>
+      </c>
+      <c r="I119" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H120" s="18">
+        <v>183</v>
+      </c>
+      <c r="I120" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H121" s="18">
+        <v>184</v>
+      </c>
+      <c r="I121" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H122" s="18">
+        <v>185</v>
+      </c>
+      <c r="I122" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H123" s="18">
+        <v>186</v>
+      </c>
+      <c r="I123" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H124" s="18">
+        <v>187</v>
+      </c>
+      <c r="I124" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H125" s="18">
+        <v>188</v>
+      </c>
+      <c r="I125" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H126" s="18">
+        <v>189</v>
+      </c>
+      <c r="I126" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H127" s="18">
+        <v>190</v>
+      </c>
+      <c r="I127" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H128" s="18">
+        <v>191</v>
+      </c>
+      <c r="I128" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H129" s="18">
+        <v>192</v>
+      </c>
+      <c r="I129" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H130" s="18">
+        <v>193</v>
+      </c>
+      <c r="I130" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H131" s="18">
+        <v>194</v>
+      </c>
+      <c r="I131" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H132" s="18">
+        <v>195</v>
+      </c>
+      <c r="I132" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H133" s="18">
+        <v>196</v>
+      </c>
+      <c r="I133" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H134" s="18">
+        <v>197</v>
+      </c>
+      <c r="I134" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H135" s="18">
+        <v>198</v>
+      </c>
+      <c r="I135" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H136" s="18">
+        <v>199</v>
+      </c>
+      <c r="I136" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H137" s="18">
+        <v>200</v>
+      </c>
+      <c r="I137" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H138" s="18">
+        <v>201</v>
+      </c>
+      <c r="I138" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H139" s="18">
+        <v>202</v>
+      </c>
+      <c r="I139" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H140" s="18">
+        <v>203</v>
+      </c>
+      <c r="I140" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H141" s="18">
+        <v>206</v>
+      </c>
+      <c r="I141" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H142" s="18">
+        <v>207</v>
+      </c>
+      <c r="I142" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H143" s="18">
+        <v>208</v>
+      </c>
+      <c r="I143" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H144" s="18">
+        <v>209</v>
+      </c>
+      <c r="I144" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H145" s="18">
+        <v>210</v>
+      </c>
+      <c r="I145" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H146" s="18">
+        <v>211</v>
+      </c>
+      <c r="I146" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H147" s="18">
+        <v>212</v>
+      </c>
+      <c r="I147" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H148" s="18">
+        <v>213</v>
+      </c>
+      <c r="I148" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H149" s="18">
+        <v>214</v>
+      </c>
+      <c r="I149" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H150" s="18">
+        <v>215</v>
+      </c>
+      <c r="I150" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H151" s="18">
+        <v>216</v>
+      </c>
+      <c r="I151" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H152" s="18">
+        <v>217</v>
+      </c>
+      <c r="I152" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H153" s="18">
+        <v>218</v>
+      </c>
+      <c r="I153" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H154" s="18">
+        <v>219</v>
+      </c>
+      <c r="I154" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H155" s="18">
+        <v>221</v>
+      </c>
+      <c r="I155" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H156" s="18">
+        <v>222</v>
+      </c>
+      <c r="I156" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H157" s="18">
+        <v>223</v>
+      </c>
+      <c r="I157" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H158" s="18">
+        <v>224</v>
+      </c>
+      <c r="I158" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H159" s="18">
+        <v>225</v>
+      </c>
+      <c r="I159" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H160" s="18">
+        <v>226</v>
+      </c>
+      <c r="I160" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H161" s="18">
+        <v>227</v>
+      </c>
+      <c r="I161" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H162" s="18">
+        <v>228</v>
+      </c>
+      <c r="I162" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H163" s="18">
+        <v>229</v>
+      </c>
+      <c r="I163" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H164" s="18">
+        <v>230</v>
+      </c>
+      <c r="I164" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H165" s="18">
+        <v>231</v>
+      </c>
+      <c r="I165" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H166" s="18">
+        <v>232</v>
+      </c>
+      <c r="I166" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H167" s="18">
+        <v>234</v>
+      </c>
+      <c r="I167" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H168" s="18">
+        <v>236</v>
+      </c>
+      <c r="I168" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H169" s="18">
+        <v>237</v>
+      </c>
+      <c r="I169" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H170" s="18">
+        <v>238</v>
+      </c>
+      <c r="I170" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H171" s="18">
+        <v>239</v>
+      </c>
+      <c r="I171" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H172" s="18">
+        <v>240</v>
+      </c>
+      <c r="I172" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H173" s="18">
+        <v>241</v>
+      </c>
+      <c r="I173" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H174" s="18">
+        <v>243</v>
+      </c>
+      <c r="I174" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H175" s="18">
+        <v>244</v>
+      </c>
+      <c r="I175" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H176" s="18">
+        <v>245</v>
+      </c>
+      <c r="I176" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H177" s="18">
+        <v>246</v>
+      </c>
+      <c r="I177" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H178" s="18">
+        <v>247</v>
+      </c>
+      <c r="I178" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H179" s="18">
+        <v>248</v>
+      </c>
+      <c r="I179" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H180" s="18">
+        <v>249</v>
+      </c>
+      <c r="I180" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H181" s="18">
+        <v>250</v>
+      </c>
+      <c r="I181" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H182" s="18">
+        <v>251</v>
+      </c>
+      <c r="I182" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H183" s="18">
+        <v>252</v>
+      </c>
+      <c r="I183" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H184" s="18">
+        <v>253</v>
+      </c>
+      <c r="I184" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H185" s="18">
+        <v>254</v>
+      </c>
+      <c r="I185" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H186" s="18">
+        <v>255</v>
+      </c>
+      <c r="I186" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H187" s="18">
+        <v>256</v>
+      </c>
+      <c r="I187" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H188" s="18">
+        <v>257</v>
+      </c>
+      <c r="I188" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H189" s="18">
+        <v>258</v>
+      </c>
+      <c r="I189" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H190" s="18">
+        <v>259</v>
+      </c>
+      <c r="I190" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H191" s="18">
+        <v>260</v>
+      </c>
+      <c r="I191" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H192" s="18">
+        <v>261</v>
+      </c>
+      <c r="I192" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H193" s="18">
+        <v>262</v>
+      </c>
+      <c r="I193" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H194" s="18">
+        <v>263</v>
+      </c>
+      <c r="I194" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H195" s="18">
+        <v>264</v>
+      </c>
+      <c r="I195" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H196" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I196" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H197" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I197" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H198" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I198" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H199" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I199" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H1:I214">
+    <sortCondition ref="H2:H214"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{BE11C286-DEFE-4AA6-B4CC-E1E4F57D780B}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{32322684-2A78-4CBF-876D-B3FC07A93182}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{1611F30F-F617-458D-B0BA-77587C3DA83C}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{A0B0A2CD-6FFE-4E54-8038-526FAEC61C65}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{1F105A94-6476-4DA9-9970-AEB831EBFD1B}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{4F8EB501-2F72-4A32-B81E-DCC2BA5F0B82}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{87C99CD8-F908-4A81-B5B6-56F3BA3CE38F}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{21DD4C73-C4AD-4D0B-AF81-2F133AA67CF0}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{9937C658-320C-4E40-B9CE-B4111F897C49}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{AAF17154-8BC8-47FA-91C4-4A4B77F486B7}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{FE82598A-C2F3-4600-869A-E2D13C9DB59C}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{515CC325-6881-4F62-A43B-6CDB2C172171}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{FFA338D6-AD62-4CB9-94A6-BCA8CF86D391}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{5323F8C3-2A6B-4AE3-8A4A-33E44E1C8DD5}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{2BFA2B3E-F11E-439A-9C3E-F53930417B96}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BE11C286-DEFE-4AA6-B4CC-E1E4F57D780B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{32322684-2A78-4CBF-876D-B3FC07A93182}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{1611F30F-F617-458D-B0BA-77587C3DA83C}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{A0B0A2CD-6FFE-4E54-8038-526FAEC61C65}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{1F105A94-6476-4DA9-9970-AEB831EBFD1B}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{4F8EB501-2F72-4A32-B81E-DCC2BA5F0B82}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{87C99CD8-F908-4A81-B5B6-56F3BA3CE38F}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{21DD4C73-C4AD-4D0B-AF81-2F133AA67CF0}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{9937C658-320C-4E40-B9CE-B4111F897C49}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{AAF17154-8BC8-47FA-91C4-4A4B77F486B7}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{FE82598A-C2F3-4600-869A-E2D13C9DB59C}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{515CC325-6881-4F62-A43B-6CDB2C172171}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{FFA338D6-AD62-4CB9-94A6-BCA8CF86D391}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{5323F8C3-2A6B-4AE3-8A4A-33E44E1C8DD5}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{2BFA2B3E-F11E-439A-9C3E-F53930417B96}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{4138FB05-5493-4FC0-9EBF-FE6E92726E69}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{21041801-91AD-4963-B5CD-77D1C9E9563E}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{24726797-40CF-48E1-8918-323AAC835D24}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{0DB119DE-8C27-4403-87BB-7A50D16D5882}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{260988EB-D23F-48C9-8F2C-F47A8EF9CFE1}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{71CCA9FC-71BD-42FC-81B5-0F7EDC62262F}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{481C8FAF-8C1F-4747-A3A7-857B0E4BF58F}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{7E206475-732F-425A-AEC8-30AC24722385}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{F40D27BD-6F57-4CAA-8575-ACF2FC74A752}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{3C583141-72A2-40C0-ABB7-52B0D65AC1F1}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{D7E1D7E4-0A2B-4487-B6DC-26B7CE2760F8}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{E151E3A5-BF95-4F3C-B038-E45023154B23}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{8941919F-E7D0-4D71-96AF-441A822F1BA9}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{24766B25-B60D-419E-A68C-1B45D51C219C}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{C66CF7BE-098A-4413-8971-9D9F783074CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
